--- a/loading.xlsx
+++ b/loading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6911A24C-2BF2-4C08-B7FD-BA7AD72EEA60}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C2EED-D9B5-454B-9D03-B73E36B3F7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14316" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{D866CE6C-984A-495B-BDD5-4AA871B7B674}"/>
+    <workbookView xWindow="-1308" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{D866CE6C-984A-495B-BDD5-4AA871B7B674}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Fuel Mass [lbs]</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>coordinator</t>
+  </si>
+  <si>
+    <t>baggage</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>aft cabin 1</t>
+  </si>
+  <si>
+    <t>aft cabin 2</t>
+  </si>
+  <si>
+    <t>Payload</t>
   </si>
 </sst>
 </file>
@@ -135,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -173,11 +188,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -191,6 +256,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -505,21 +581,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC78771E-730F-43D9-854C-AD078BA45207}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="8"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -527,14 +604,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>100</v>
       </c>
       <c r="B2" s="2">
         <v>29816</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -544,14 +621,14 @@
         <v>3.3273999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3" s="2">
         <v>59818</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -561,14 +638,14 @@
         <v>3.3273999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>300</v>
       </c>
       <c r="B4" s="2">
         <v>87908</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -578,14 +655,14 @@
         <v>4.3179999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>400</v>
       </c>
       <c r="B5" s="2">
         <v>116542</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -595,14 +672,14 @@
         <v>5.4356</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>500</v>
       </c>
       <c r="B6" s="2">
         <v>144840</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -612,14 +689,14 @@
         <v>5.4356</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>600</v>
       </c>
       <c r="B7" s="2">
         <v>173253</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -629,14 +706,14 @@
         <v>6.3754</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>700</v>
       </c>
       <c r="B8" s="2">
         <v>201480</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -646,14 +723,14 @@
         <v>6.3754</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>800</v>
       </c>
       <c r="B9" s="2">
         <v>229884</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -663,14 +740,14 @@
         <v>7.3151999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>900</v>
       </c>
       <c r="B10" s="2">
         <v>258192</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -680,13 +757,14 @@
         <v>7.3151999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1000</v>
       </c>
       <c r="B11" s="2">
         <v>286630</v>
       </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
@@ -694,79 +772,123 @@
         <v>4.3179999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1100</v>
       </c>
       <c r="B12" s="2">
         <v>315018</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1200</v>
       </c>
       <c r="B13" s="2">
         <v>343452</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1300</v>
       </c>
       <c r="B14" s="2">
         <v>371852</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="8"/>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1400</v>
       </c>
       <c r="B15" s="2">
         <v>400323</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="8"/>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8.0137</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1500</v>
       </c>
       <c r="B16" s="2">
         <v>428776</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8.0137</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1600</v>
       </c>
       <c r="B17" s="2">
         <v>457224</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6.2057641429999997</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1700</v>
       </c>
       <c r="B18" s="2">
         <v>485656</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1800</v>
       </c>
       <c r="B19" s="2">
         <v>514116</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1900</v>
       </c>
       <c r="B20" s="2">
         <v>542564</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2000</v>
       </c>
@@ -774,7 +896,7 @@
         <v>570990</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2100</v>
       </c>
@@ -782,7 +904,7 @@
         <v>599404</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2200</v>
       </c>
@@ -790,7 +912,7 @@
         <v>627847</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2300</v>
       </c>
@@ -798,7 +920,7 @@
         <v>656282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2400</v>
       </c>
@@ -806,7 +928,7 @@
         <v>684696</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>2500</v>
       </c>
@@ -814,7 +936,7 @@
         <v>713100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>2600</v>
       </c>
@@ -822,7 +944,7 @@
         <v>741533</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>2700</v>
       </c>
@@ -830,7 +952,7 @@
         <v>769960</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>2800</v>
       </c>
@@ -838,7 +960,7 @@
         <v>798434</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>2900</v>
       </c>
@@ -846,7 +968,7 @@
         <v>826906</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>3000</v>
       </c>
@@ -854,7 +976,7 @@
         <v>855405</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3100</v>
       </c>

--- a/loading.xlsx
+++ b/loading.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reini\Documents\LR\3rd year\SVV\Flight dynamics\SVV-Flight-Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C2EED-D9B5-454B-9D03-B73E36B3F7B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AF9D5C-583E-414F-917D-1FF915F640DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1308" yWindow="588" windowWidth="17280" windowHeight="8964" xr2:uid="{D866CE6C-984A-495B-BDD5-4AA871B7B674}"/>
+    <workbookView xWindow="5760" yWindow="1044" windowWidth="17280" windowHeight="8964" xr2:uid="{D866CE6C-984A-495B-BDD5-4AA871B7B674}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Fuel Mass [lbs]</t>
   </si>
@@ -36,9 +36,6 @@
     <t>crew and pax</t>
   </si>
   <si>
-    <t>x_cg datum</t>
-  </si>
-  <si>
     <t>seat 1</t>
   </si>
   <si>
@@ -109,6 +106,12 @@
   </si>
   <si>
     <t>Payload</t>
+  </si>
+  <si>
+    <t>x_cg datum pre</t>
+  </si>
+  <si>
+    <t>x_cg datum post</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,9 +162,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -174,24 +175,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -203,70 +187,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -581,558 +525,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC78771E-730F-43D9-854C-AD078BA45207}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5">
+        <v>29816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2">
-        <v>29816</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="5">
+        <v>3.3273999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.3273999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>200</v>
+      </c>
+      <c r="B3" s="5">
+        <v>59818</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="5">
         <v>3.3273999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>200</v>
-      </c>
-      <c r="B3" s="2">
-        <v>59818</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3.3273999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>300</v>
+      </c>
+      <c r="B4" s="5">
+        <v>87908</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.3179999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="5">
+        <v>116542</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2">
-        <v>3.3273999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>300</v>
-      </c>
-      <c r="B4" s="2">
-        <v>87908</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E5" s="5">
+        <v>5.4356</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.4356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>500</v>
+      </c>
+      <c r="B6" s="5">
+        <v>144840</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.4356</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5.4356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>600</v>
+      </c>
+      <c r="B7" s="5">
+        <v>173253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6.3754</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.3754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>700</v>
+      </c>
+      <c r="B8" s="5">
+        <v>201480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6.3754</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>6.3754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>800</v>
+      </c>
+      <c r="B9" s="5">
+        <v>229884</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5">
+        <v>7.3151999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>900</v>
+      </c>
+      <c r="B10" s="5">
+        <v>258192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>7.3151999999999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4.3179999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>286630</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7.3151999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>1100</v>
+      </c>
+      <c r="B12" s="5">
+        <v>315018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1200</v>
+      </c>
+      <c r="B13" s="5">
+        <v>343452</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4.3179999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>400</v>
-      </c>
-      <c r="B5" s="2">
-        <v>116542</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.4356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>500</v>
-      </c>
-      <c r="B6" s="2">
-        <v>144840</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.4356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>600</v>
-      </c>
-      <c r="B7" s="2">
-        <v>173253</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.3754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>700</v>
-      </c>
-      <c r="B8" s="2">
-        <v>201480</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.3754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>800</v>
-      </c>
-      <c r="B9" s="2">
-        <v>229884</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7.3151999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>900</v>
-      </c>
-      <c r="B10" s="2">
-        <v>258192</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7.3151999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="2">
-        <v>286630</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4.3179999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>1100</v>
-      </c>
-      <c r="B12" s="2">
-        <v>315018</v>
-      </c>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>1200</v>
-      </c>
-      <c r="B13" s="2">
-        <v>343452</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>1300</v>
+      </c>
+      <c r="B14" s="5">
+        <v>371852</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>1300</v>
-      </c>
-      <c r="B14" s="2">
-        <v>371852</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="6">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B15" s="5">
+        <v>400323</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5">
-        <v>1.8795999999999999</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>1400</v>
-      </c>
-      <c r="B15" s="2">
-        <v>400323</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="6">
+        <v>8.0137</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>1500</v>
+      </c>
+      <c r="B16" s="5">
+        <v>428776</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="6">
         <v>8.0137</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>1500</v>
-      </c>
-      <c r="B16" s="2">
-        <v>428776</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6" t="s">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>1600</v>
+      </c>
+      <c r="B17" s="5">
+        <v>457224</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7">
-        <v>8.0137</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>1600</v>
-      </c>
-      <c r="B17" s="2">
-        <v>457224</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>6.2057641429999997</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>1700</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>485656</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>1800</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>514116</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>1900</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>542564</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>2000</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>570990</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>2100</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>599404</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>2200</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>627847</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>2300</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>656282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>2400</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>684696</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>2500</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>713100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>2600</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <v>741533</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>2700</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <v>769960</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>2800</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>798434</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>2900</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="5">
         <v>826906</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>3000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="5">
         <v>855405</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>3100</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>883904</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>3200</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <v>912480</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>3300</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <v>941062</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>3400</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <v>969697</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>3500</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <v>998340</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>3600</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <v>1027008</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>3700</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="5">
         <v>1055684</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>3800</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <v>1084387</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>3900</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="5">
         <v>1113100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>4000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="5">
         <v>1141820</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>4100</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="5">
         <v>1170550</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>4200</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="5">
         <v>1199331</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>4300</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="5">
         <v>1228118</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>4400</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="5">
         <v>1256904</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>4500</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="5">
         <v>1285686</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>4600</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="5">
         <v>1314473</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>4700</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="5">
         <v>1343248</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>4800</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="5">
         <v>1372056</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>4900</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="5">
         <v>1400846</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>5008</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="5">
         <v>1432034</v>
       </c>
     </row>
